--- a/dataset_creation/tickers_numAndAvg.xlsx
+++ b/dataset_creation/tickers_numAndAvg.xlsx
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="C13" t="n">
-        <v>2363.64</v>
+        <v>2339.232183908046</v>
       </c>
     </row>
     <row r="14">
@@ -933,10 +933,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>432</v>
+        <v>454</v>
       </c>
       <c r="C39" t="n">
-        <v>2342.796296296296</v>
+        <v>2283.458149779736</v>
       </c>
     </row>
     <row r="40">
@@ -1024,10 +1024,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C46" t="n">
-        <v>3980.192307692308</v>
+        <v>3875.824561403509</v>
       </c>
     </row>
     <row r="47">
@@ -1635,10 +1635,10 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C93" t="n">
-        <v>4021.787878787879</v>
+        <v>3876.138888888889</v>
       </c>
     </row>
     <row r="94">
@@ -1661,10 +1661,10 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C95" t="n">
-        <v>3297.8</v>
+        <v>3169.642857142857</v>
       </c>
     </row>
     <row r="96">

--- a/dataset_creation/tickers_numAndAvg.xlsx
+++ b/dataset_creation/tickers_numAndAvg.xlsx
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C13" t="n">
-        <v>2339.232183908046</v>
+        <v>2328.526315789474</v>
       </c>
     </row>
     <row r="14">
@@ -933,10 +933,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="C39" t="n">
-        <v>2283.458149779736</v>
+        <v>2277.291220556745</v>
       </c>
     </row>
     <row r="40">
@@ -1635,10 +1635,10 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C93" t="n">
-        <v>3876.138888888889</v>
+        <v>3799.567567567567</v>
       </c>
     </row>
     <row r="94">

--- a/dataset_creation/tickers_numAndAvg.xlsx
+++ b/dataset_creation/tickers_numAndAvg.xlsx
@@ -465,10 +465,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>409</v>
+        <v>432</v>
       </c>
       <c r="C3" t="n">
-        <v>3081.141809290953</v>
+        <v>3194.215277777778</v>
       </c>
     </row>
     <row r="4">
@@ -478,10 +478,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>459</v>
+        <v>501</v>
       </c>
       <c r="C4" t="n">
-        <v>2596.797385620915</v>
+        <v>2618.728542914172</v>
       </c>
     </row>
     <row r="5">
@@ -491,10 +491,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>6172.888888888889</v>
+        <v>6022.952380952381</v>
       </c>
     </row>
     <row r="6">
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6" t="n">
-        <v>3246.354166666667</v>
+        <v>3279.081632653061</v>
       </c>
     </row>
     <row r="7">
@@ -517,10 +517,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C7" t="n">
-        <v>4596.553571428572</v>
+        <v>4744.796875</v>
       </c>
     </row>
     <row r="8">
@@ -530,10 +530,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>2368.294117647059</v>
+        <v>2358.45</v>
       </c>
     </row>
     <row r="9">
@@ -543,10 +543,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C9" t="n">
-        <v>4708.35294117647</v>
+        <v>4756.916666666667</v>
       </c>
     </row>
     <row r="10">
@@ -569,10 +569,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C11" t="n">
-        <v>6948.879310344828</v>
+        <v>6758.875</v>
       </c>
     </row>
     <row r="12">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="C13" t="n">
-        <v>2328.526315789474</v>
+        <v>2311.936542669584</v>
       </c>
     </row>
     <row r="14">
@@ -608,10 +608,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>4074.909090909091</v>
+        <v>4045</v>
       </c>
     </row>
     <row r="15">
@@ -660,10 +660,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="n">
-        <v>3369.625</v>
+        <v>3366.68</v>
       </c>
     </row>
     <row r="19">
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C20" t="n">
-        <v>2928.185430463576</v>
+        <v>3016.322784810126</v>
       </c>
     </row>
     <row r="21">
@@ -699,10 +699,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C21" t="n">
-        <v>4215.233766233766</v>
+        <v>4165.091954022989</v>
       </c>
     </row>
     <row r="22">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>6357.333333333333</v>
+        <v>5822</v>
       </c>
     </row>
     <row r="23">
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C23" t="n">
-        <v>2841.714285714286</v>
+        <v>2782.1875</v>
       </c>
     </row>
     <row r="24">
@@ -738,10 +738,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C24" t="n">
-        <v>5987.384615384615</v>
+        <v>5794.151515151515</v>
       </c>
     </row>
     <row r="25">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C26" t="n">
-        <v>9177.5</v>
+        <v>7462.5</v>
       </c>
     </row>
     <row r="27">
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C27" t="n">
-        <v>5238.1</v>
+        <v>5275.136363636364</v>
       </c>
     </row>
     <row r="28">
@@ -790,10 +790,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C28" t="n">
-        <v>2526.075</v>
+        <v>3780.604651162791</v>
       </c>
     </row>
     <row r="29">
@@ -803,10 +803,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C29" t="n">
-        <v>7446.636363636364</v>
+        <v>7665.083333333333</v>
       </c>
     </row>
     <row r="30">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C30" t="n">
-        <v>5920.733333333334</v>
+        <v>5556.705882352941</v>
       </c>
     </row>
     <row r="31">
@@ -829,10 +829,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C31" t="n">
-        <v>3233.346153846154</v>
+        <v>3355.321100917431</v>
       </c>
     </row>
     <row r="32">
@@ -855,10 +855,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C33" t="n">
-        <v>7181.166666666667</v>
+        <v>6904.55</v>
       </c>
     </row>
     <row r="34">
@@ -881,10 +881,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C35" t="n">
-        <v>3568.133333333333</v>
+        <v>3573.78947368421</v>
       </c>
     </row>
     <row r="36">
@@ -894,10 +894,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C36" t="n">
-        <v>2868.537313432836</v>
+        <v>2952.352112676057</v>
       </c>
     </row>
     <row r="37">
@@ -907,10 +907,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>633</v>
+        <v>730</v>
       </c>
       <c r="C37" t="n">
-        <v>2267.976303317535</v>
+        <v>2243.778082191781</v>
       </c>
     </row>
     <row r="38">
@@ -920,10 +920,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C38" t="n">
-        <v>2843</v>
+        <v>2328.393939393939</v>
       </c>
     </row>
     <row r="39">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>444</v>
+        <v>470</v>
       </c>
       <c r="C40" t="n">
-        <v>2383.400900900901</v>
+        <v>2357.097872340426</v>
       </c>
     </row>
     <row r="41">
@@ -959,10 +959,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>394</v>
+        <v>421</v>
       </c>
       <c r="C41" t="n">
-        <v>2381.657360406091</v>
+        <v>2366.605700712589</v>
       </c>
     </row>
     <row r="42">
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C42" t="n">
-        <v>7739.571428571428</v>
+        <v>7783.2</v>
       </c>
     </row>
     <row r="43">
@@ -998,10 +998,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="C44" t="n">
-        <v>2664.027932960894</v>
+        <v>2710.931578947369</v>
       </c>
     </row>
     <row r="45">
@@ -1011,10 +1011,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C45" t="n">
-        <v>5339</v>
+        <v>4991.25</v>
       </c>
     </row>
     <row r="46">
@@ -1037,10 +1037,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="n">
-        <v>4556.875</v>
+        <v>4367.222222222223</v>
       </c>
     </row>
     <row r="48">
@@ -1063,10 +1063,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C49" t="n">
-        <v>12953.33333333333</v>
+        <v>12096.38461538462</v>
       </c>
     </row>
     <row r="50">
@@ -1076,10 +1076,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C50" t="n">
-        <v>9226.307692307691</v>
+        <v>8832.714285714286</v>
       </c>
     </row>
     <row r="51">
@@ -1089,10 +1089,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C51" t="n">
-        <v>7435.179487179487</v>
+        <v>7344.275</v>
       </c>
     </row>
     <row r="52">
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C52" t="n">
-        <v>5169.767123287671</v>
+        <v>5304.064935064935</v>
       </c>
     </row>
     <row r="53">
@@ -1128,10 +1128,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C54" t="n">
-        <v>2904.239130434783</v>
+        <v>2808.208333333333</v>
       </c>
     </row>
     <row r="55">
@@ -1141,10 +1141,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C55" t="n">
-        <v>13942</v>
+        <v>12603.5</v>
       </c>
     </row>
     <row r="56">
@@ -1154,10 +1154,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C56" t="n">
-        <v>4616.25</v>
+        <v>4582.153846153846</v>
       </c>
     </row>
     <row r="57">
@@ -1167,10 +1167,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C57" t="n">
-        <v>3797.272727272727</v>
+        <v>3745.066666666667</v>
       </c>
     </row>
     <row r="58">
@@ -1193,10 +1193,10 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C59" t="n">
-        <v>2526.769230769231</v>
+        <v>3610.5</v>
       </c>
     </row>
     <row r="60">
@@ -1206,10 +1206,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C60" t="n">
-        <v>3849.59649122807</v>
+        <v>3779.5</v>
       </c>
     </row>
     <row r="61">
@@ -1219,10 +1219,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C61" t="n">
-        <v>11107.8</v>
+        <v>10673.59375</v>
       </c>
     </row>
     <row r="62">
@@ -1232,10 +1232,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="n">
-        <v>8140.714285714285</v>
+        <v>7847.75</v>
       </c>
     </row>
     <row r="63">
@@ -1245,10 +1245,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C63" t="n">
-        <v>5393.333333333333</v>
+        <v>5641.4</v>
       </c>
     </row>
     <row r="64">
@@ -1258,10 +1258,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C64" t="n">
-        <v>4107</v>
+        <v>5159.375</v>
       </c>
     </row>
     <row r="65">
@@ -1271,10 +1271,10 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C65" t="n">
-        <v>2153.065789473684</v>
+        <v>2133.443037974684</v>
       </c>
     </row>
     <row r="66">
@@ -1284,10 +1284,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C66" t="n">
-        <v>5549.6</v>
+        <v>5177.764705882353</v>
       </c>
     </row>
     <row r="67">
@@ -1297,10 +1297,10 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C67" t="n">
-        <v>2282.6</v>
+        <v>1997.833333333333</v>
       </c>
     </row>
     <row r="68">
@@ -1310,10 +1310,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C68" t="n">
-        <v>5721.939393939394</v>
+        <v>6226.378378378378</v>
       </c>
     </row>
     <row r="69">
@@ -1323,10 +1323,10 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C69" t="n">
-        <v>3406.731707317073</v>
+        <v>3299.510638297872</v>
       </c>
     </row>
     <row r="70">
@@ -1336,10 +1336,10 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C70" t="n">
-        <v>6253.684210526316</v>
+        <v>6264</v>
       </c>
     </row>
     <row r="71">
@@ -1362,10 +1362,10 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C72" t="n">
-        <v>3331</v>
+        <v>3119.861111111111</v>
       </c>
     </row>
     <row r="73">
@@ -1375,10 +1375,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C73" t="n">
-        <v>7038.568627450981</v>
+        <v>7296.166666666667</v>
       </c>
     </row>
     <row r="74">
@@ -1388,10 +1388,10 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C74" t="n">
-        <v>3212.564814814815</v>
+        <v>3099.155172413793</v>
       </c>
     </row>
     <row r="75">
@@ -1401,10 +1401,10 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C75" t="n">
-        <v>5611.23076923077</v>
+        <v>5372.488888888889</v>
       </c>
     </row>
     <row r="76">
@@ -1414,10 +1414,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="C76" t="n">
-        <v>3565.766467065868</v>
+        <v>3826.40782122905</v>
       </c>
     </row>
     <row r="77">
@@ -1427,10 +1427,10 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C77" t="n">
-        <v>10191.88888888889</v>
+        <v>8277.583333333334</v>
       </c>
     </row>
     <row r="78">
@@ -1453,10 +1453,10 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C79" t="n">
-        <v>5880.5875</v>
+        <v>5830.268292682927</v>
       </c>
     </row>
     <row r="80">
@@ -1466,10 +1466,10 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C80" t="n">
-        <v>2281.075</v>
+        <v>2865.24</v>
       </c>
     </row>
     <row r="81">
@@ -1492,10 +1492,10 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C82" t="n">
-        <v>3788.642857142857</v>
+        <v>3829.206896551724</v>
       </c>
     </row>
     <row r="83">
@@ -1505,10 +1505,10 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C83" t="n">
-        <v>7049</v>
+        <v>7346.875</v>
       </c>
     </row>
     <row r="84">
@@ -1518,10 +1518,10 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C84" t="n">
-        <v>9417.488372093023</v>
+        <v>8924.875</v>
       </c>
     </row>
     <row r="85">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C85" t="n">
-        <v>3324.8</v>
+        <v>5006</v>
       </c>
     </row>
     <row r="86">
@@ -1609,10 +1609,10 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C91" t="n">
-        <v>2807.579545454545</v>
+        <v>2802.744680851064</v>
       </c>
     </row>
     <row r="92">
@@ -1622,10 +1622,10 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C92" t="n">
-        <v>2333.958333333333</v>
+        <v>2780.56</v>
       </c>
     </row>
     <row r="93">
@@ -1648,10 +1648,10 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C94" t="n">
-        <v>4085.129032258064</v>
+        <v>4039.085714285714</v>
       </c>
     </row>
     <row r="95">
@@ -1674,10 +1674,10 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C96" t="n">
-        <v>6232.833333333333</v>
+        <v>5685.214285714285</v>
       </c>
     </row>
     <row r="97">
@@ -1713,10 +1713,10 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C99" t="n">
-        <v>1986</v>
+        <v>3849.6</v>
       </c>
     </row>
     <row r="100">
@@ -1726,10 +1726,10 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C100" t="n">
-        <v>14858.82608695652</v>
+        <v>12356.51724137931</v>
       </c>
     </row>
     <row r="101">
@@ -1739,10 +1739,10 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C101" t="n">
-        <v>3327.727272727273</v>
+        <v>4957.6</v>
       </c>
     </row>
     <row r="102">
@@ -1752,10 +1752,10 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C102" t="n">
-        <v>2417.9</v>
+        <v>2191.1</v>
       </c>
     </row>
   </sheetData>
